--- a/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationdosage-usageduration.xlsx
+++ b/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationdosage-usageduration.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
